--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1690.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1690.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7876010870349747</v>
+        <v>0.6021503210067749</v>
       </c>
       <c r="B1">
-        <v>3.928790146555634</v>
+        <v>0.9641004800796509</v>
       </c>
       <c r="C1">
-        <v>2.242257536312714</v>
+        <v>4.289170265197754</v>
       </c>
       <c r="D1">
-        <v>1.786136572339254</v>
+        <v>1.976656794548035</v>
       </c>
       <c r="E1">
-        <v>1.641841338525996</v>
+        <v>1.605364322662354</v>
       </c>
     </row>
   </sheetData>
